--- a/datasheet.xlsx
+++ b/datasheet.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code sakral\ahp-marcos-dss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E83B40B-010E-4D53-9494-12706C8B9B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645CB74D-48E1-4B90-825D-985334E24E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AHP" sheetId="1" r:id="rId1"/>
     <sheet name="MARCOS" sheetId="2" r:id="rId2"/>
+    <sheet name="MOORA" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="31">
   <si>
     <t>C1</t>
   </si>
@@ -736,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1353B54-73B1-4BFD-910F-A6AD7691D385}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1321,4 +1322,591 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3640EDA7-334E-4CD1-B9D7-540B3B8AB182}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1549000</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6">
+        <v>100</v>
+      </c>
+      <c r="F2" s="6">
+        <v>70</v>
+      </c>
+      <c r="G2" s="6">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2009000</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6">
+        <v>80</v>
+      </c>
+      <c r="F3" s="6">
+        <v>70</v>
+      </c>
+      <c r="G3" s="6">
+        <v>2</v>
+      </c>
+      <c r="H3" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5">
+        <v>238000</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6">
+        <v>60</v>
+      </c>
+      <c r="F4" s="6">
+        <v>50</v>
+      </c>
+      <c r="G4" s="6">
+        <v>3</v>
+      </c>
+      <c r="H4" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5">
+        <v>299000</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6">
+        <v>100</v>
+      </c>
+      <c r="F5" s="6">
+        <v>20</v>
+      </c>
+      <c r="G5" s="6">
+        <v>3</v>
+      </c>
+      <c r="H5" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2629000</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6">
+        <v>100</v>
+      </c>
+      <c r="F6" s="6">
+        <v>70</v>
+      </c>
+      <c r="G6" s="6">
+        <v>3</v>
+      </c>
+      <c r="H6" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5">
+        <v>824000</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6">
+        <v>75</v>
+      </c>
+      <c r="F7" s="6">
+        <v>50</v>
+      </c>
+      <c r="G7" s="6">
+        <v>3</v>
+      </c>
+      <c r="H7" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1255000</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>3</v>
+      </c>
+      <c r="E8" s="6">
+        <v>96</v>
+      </c>
+      <c r="F8" s="6">
+        <v>60</v>
+      </c>
+      <c r="G8" s="6">
+        <v>2</v>
+      </c>
+      <c r="H8" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="5">
+        <v>279000</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>2</v>
+      </c>
+      <c r="E9" s="6">
+        <v>68</v>
+      </c>
+      <c r="F9" s="6">
+        <v>50</v>
+      </c>
+      <c r="G9" s="6">
+        <v>3</v>
+      </c>
+      <c r="H9" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="5">
+        <v>224000</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>2</v>
+      </c>
+      <c r="E10" s="6">
+        <v>60</v>
+      </c>
+      <c r="F10" s="6">
+        <v>50</v>
+      </c>
+      <c r="G10" s="6">
+        <v>3</v>
+      </c>
+      <c r="H10" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="5">
+        <v>689000</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6">
+        <v>3</v>
+      </c>
+      <c r="E11" s="6">
+        <v>100</v>
+      </c>
+      <c r="F11" s="6">
+        <v>50</v>
+      </c>
+      <c r="G11" s="6">
+        <v>3</v>
+      </c>
+      <c r="H11" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="5">
+        <v>549000</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6">
+        <v>3</v>
+      </c>
+      <c r="E12" s="6">
+        <v>65</v>
+      </c>
+      <c r="F12" s="6">
+        <v>50</v>
+      </c>
+      <c r="G12" s="6">
+        <v>3</v>
+      </c>
+      <c r="H12" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="5">
+        <v>998000</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6">
+        <v>3</v>
+      </c>
+      <c r="E13" s="6">
+        <v>80</v>
+      </c>
+      <c r="F13" s="6">
+        <v>100</v>
+      </c>
+      <c r="G13" s="6">
+        <v>2</v>
+      </c>
+      <c r="H13" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="5">
+        <v>425000</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6">
+        <v>2</v>
+      </c>
+      <c r="E14" s="6">
+        <v>100</v>
+      </c>
+      <c r="F14" s="6">
+        <v>50</v>
+      </c>
+      <c r="G14" s="6">
+        <v>3</v>
+      </c>
+      <c r="H14" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="5">
+        <v>329000</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6">
+        <v>80</v>
+      </c>
+      <c r="F15" s="6">
+        <v>50</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="5">
+        <v>949000</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6">
+        <v>3</v>
+      </c>
+      <c r="E16" s="6">
+        <v>65</v>
+      </c>
+      <c r="F16" s="6">
+        <v>50</v>
+      </c>
+      <c r="G16" s="6">
+        <v>2</v>
+      </c>
+      <c r="H16" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="5">
+        <v>299000</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6">
+        <v>95</v>
+      </c>
+      <c r="F17" s="6">
+        <v>50</v>
+      </c>
+      <c r="G17" s="6">
+        <v>3</v>
+      </c>
+      <c r="H17" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1599999</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6">
+        <v>2</v>
+      </c>
+      <c r="E18" s="6">
+        <v>75</v>
+      </c>
+      <c r="F18" s="6">
+        <v>60</v>
+      </c>
+      <c r="G18" s="6">
+        <v>2</v>
+      </c>
+      <c r="H18" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="5">
+        <v>599000</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6">
+        <v>3</v>
+      </c>
+      <c r="E19" s="6">
+        <v>60</v>
+      </c>
+      <c r="F19" s="6">
+        <v>70</v>
+      </c>
+      <c r="G19" s="6">
+        <v>3</v>
+      </c>
+      <c r="H19" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="5">
+        <v>649000</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6">
+        <v>3</v>
+      </c>
+      <c r="E20" s="6">
+        <v>75</v>
+      </c>
+      <c r="F20" s="6">
+        <v>60</v>
+      </c>
+      <c r="G20" s="6">
+        <v>3</v>
+      </c>
+      <c r="H20" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="5">
+        <v>590000</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6">
+        <v>3</v>
+      </c>
+      <c r="E21" s="6">
+        <v>80</v>
+      </c>
+      <c r="F21" s="6">
+        <v>60</v>
+      </c>
+      <c r="G21" s="6">
+        <v>3</v>
+      </c>
+      <c r="H21" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/datasheet.xlsx
+++ b/datasheet.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code sakral\ahp-marcos-dss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code sakral\DSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645CB74D-48E1-4B90-825D-985334E24E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7C3F58-408E-4BC2-BB10-C4BA97F20127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AHP" sheetId="1" r:id="rId1"/>
     <sheet name="MARCOS" sheetId="2" r:id="rId2"/>
     <sheet name="MOORA" sheetId="3" r:id="rId3"/>
+    <sheet name="TOPSIS" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="31">
   <si>
     <t>C1</t>
   </si>
@@ -1328,7 +1329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3640EDA7-334E-4CD1-B9D7-540B3B8AB182}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H22"/>
     </sheetView>
   </sheetViews>
@@ -1909,4 +1910,591 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C8148F-2989-4A2D-BFD9-ABAE17FBE33B}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1549000</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6">
+        <v>100</v>
+      </c>
+      <c r="F2" s="6">
+        <v>70</v>
+      </c>
+      <c r="G2" s="6">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2009000</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6">
+        <v>80</v>
+      </c>
+      <c r="F3" s="6">
+        <v>70</v>
+      </c>
+      <c r="G3" s="6">
+        <v>2</v>
+      </c>
+      <c r="H3" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5">
+        <v>238000</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6">
+        <v>60</v>
+      </c>
+      <c r="F4" s="6">
+        <v>50</v>
+      </c>
+      <c r="G4" s="6">
+        <v>3</v>
+      </c>
+      <c r="H4" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5">
+        <v>299000</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6">
+        <v>100</v>
+      </c>
+      <c r="F5" s="6">
+        <v>20</v>
+      </c>
+      <c r="G5" s="6">
+        <v>3</v>
+      </c>
+      <c r="H5" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2629000</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6">
+        <v>100</v>
+      </c>
+      <c r="F6" s="6">
+        <v>70</v>
+      </c>
+      <c r="G6" s="6">
+        <v>3</v>
+      </c>
+      <c r="H6" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5">
+        <v>824000</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6">
+        <v>75</v>
+      </c>
+      <c r="F7" s="6">
+        <v>50</v>
+      </c>
+      <c r="G7" s="6">
+        <v>3</v>
+      </c>
+      <c r="H7" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1255000</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>3</v>
+      </c>
+      <c r="E8" s="6">
+        <v>96</v>
+      </c>
+      <c r="F8" s="6">
+        <v>60</v>
+      </c>
+      <c r="G8" s="6">
+        <v>2</v>
+      </c>
+      <c r="H8" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="5">
+        <v>279000</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>2</v>
+      </c>
+      <c r="E9" s="6">
+        <v>68</v>
+      </c>
+      <c r="F9" s="6">
+        <v>50</v>
+      </c>
+      <c r="G9" s="6">
+        <v>3</v>
+      </c>
+      <c r="H9" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="5">
+        <v>224000</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>2</v>
+      </c>
+      <c r="E10" s="6">
+        <v>60</v>
+      </c>
+      <c r="F10" s="6">
+        <v>50</v>
+      </c>
+      <c r="G10" s="6">
+        <v>3</v>
+      </c>
+      <c r="H10" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="5">
+        <v>689000</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6">
+        <v>3</v>
+      </c>
+      <c r="E11" s="6">
+        <v>100</v>
+      </c>
+      <c r="F11" s="6">
+        <v>50</v>
+      </c>
+      <c r="G11" s="6">
+        <v>3</v>
+      </c>
+      <c r="H11" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="5">
+        <v>549000</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6">
+        <v>3</v>
+      </c>
+      <c r="E12" s="6">
+        <v>65</v>
+      </c>
+      <c r="F12" s="6">
+        <v>50</v>
+      </c>
+      <c r="G12" s="6">
+        <v>3</v>
+      </c>
+      <c r="H12" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="5">
+        <v>998000</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6">
+        <v>3</v>
+      </c>
+      <c r="E13" s="6">
+        <v>80</v>
+      </c>
+      <c r="F13" s="6">
+        <v>100</v>
+      </c>
+      <c r="G13" s="6">
+        <v>2</v>
+      </c>
+      <c r="H13" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="5">
+        <v>425000</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6">
+        <v>2</v>
+      </c>
+      <c r="E14" s="6">
+        <v>100</v>
+      </c>
+      <c r="F14" s="6">
+        <v>50</v>
+      </c>
+      <c r="G14" s="6">
+        <v>3</v>
+      </c>
+      <c r="H14" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="5">
+        <v>329000</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6">
+        <v>80</v>
+      </c>
+      <c r="F15" s="6">
+        <v>50</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="5">
+        <v>949000</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6">
+        <v>3</v>
+      </c>
+      <c r="E16" s="6">
+        <v>65</v>
+      </c>
+      <c r="F16" s="6">
+        <v>50</v>
+      </c>
+      <c r="G16" s="6">
+        <v>2</v>
+      </c>
+      <c r="H16" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="5">
+        <v>299000</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6">
+        <v>95</v>
+      </c>
+      <c r="F17" s="6">
+        <v>50</v>
+      </c>
+      <c r="G17" s="6">
+        <v>3</v>
+      </c>
+      <c r="H17" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1599999</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6">
+        <v>2</v>
+      </c>
+      <c r="E18" s="6">
+        <v>75</v>
+      </c>
+      <c r="F18" s="6">
+        <v>60</v>
+      </c>
+      <c r="G18" s="6">
+        <v>2</v>
+      </c>
+      <c r="H18" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="5">
+        <v>599000</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6">
+        <v>3</v>
+      </c>
+      <c r="E19" s="6">
+        <v>60</v>
+      </c>
+      <c r="F19" s="6">
+        <v>70</v>
+      </c>
+      <c r="G19" s="6">
+        <v>3</v>
+      </c>
+      <c r="H19" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="5">
+        <v>649000</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6">
+        <v>3</v>
+      </c>
+      <c r="E20" s="6">
+        <v>75</v>
+      </c>
+      <c r="F20" s="6">
+        <v>60</v>
+      </c>
+      <c r="G20" s="6">
+        <v>3</v>
+      </c>
+      <c r="H20" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="5">
+        <v>590000</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6">
+        <v>3</v>
+      </c>
+      <c r="E21" s="6">
+        <v>80</v>
+      </c>
+      <c r="F21" s="6">
+        <v>60</v>
+      </c>
+      <c r="G21" s="6">
+        <v>3</v>
+      </c>
+      <c r="H21" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>